--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>name (root)</t>
   </si>
@@ -112,6 +112,45 @@
   </si>
   <si>
     <t>bolt</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>cleaver</t>
+  </si>
+  <si>
+    <t>a targeted wide atk</t>
+  </si>
+  <si>
+    <t>LMRT</t>
+  </si>
+  <si>
+    <t>sacrifice</t>
+  </si>
+  <si>
+    <t>hurts self, does big ds</t>
+  </si>
+  <si>
+    <t>LRmS</t>
+  </si>
+  <si>
+    <t>whiff</t>
+  </si>
+  <si>
+    <t>always misses (debug )</t>
+  </si>
+  <si>
+    <t>adds fire element to spell</t>
+  </si>
+  <si>
+    <t>adds ice element to spell</t>
+  </si>
+  <si>
+    <t>adds bolt element to spell</t>
+  </si>
+  <si>
+    <t>+acc, -power</t>
   </si>
 </sst>
 </file>
@@ -147,8 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,18 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,123 +592,222 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>1000000</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-1000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>-5</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>-5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>name (root)</t>
   </si>
@@ -102,9 +102,6 @@
     <t>a basic super long atk</t>
   </si>
   <si>
-    <t>LMT</t>
-  </si>
-  <si>
     <t>poke</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>LRmS</t>
   </si>
   <si>
-    <t>whiff</t>
-  </si>
-  <si>
     <t>always misses (debug )</t>
   </si>
   <si>
@@ -151,6 +145,21 @@
   </si>
   <si>
     <t>+acc, -power</t>
+  </si>
+  <si>
+    <t>crit %</t>
+  </si>
+  <si>
+    <t>crit % mod</t>
+  </si>
+  <si>
+    <t>splash</t>
+  </si>
+  <si>
+    <t>weakpnt</t>
+  </si>
+  <si>
+    <t>always crits (debug)</t>
   </si>
 </sst>
 </file>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,11 +491,11 @@
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="6" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,13 +515,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -532,13 +544,16 @@
         <v>85</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -558,13 +573,16 @@
         <v>90</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -584,21 +602,24 @@
         <v>75</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -610,21 +631,24 @@
         <v>75</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -636,24 +660,27 @@
         <v>95</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
       <c r="D7">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -662,21 +689,24 @@
         <v>-1000</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
       </c>
       <c r="D8">
         <v>999</v>
@@ -690,124 +720,162 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>-5</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>-5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>name (root)</t>
   </si>
@@ -33,9 +33,6 @@
     <t>hit %</t>
   </si>
   <si>
-    <t>Status Mod</t>
-  </si>
-  <si>
     <t>pattern</t>
   </si>
   <si>
@@ -66,21 +63,9 @@
     <t>element</t>
   </si>
   <si>
-    <t>cooldown mod</t>
-  </si>
-  <si>
     <t>name (style)</t>
   </si>
   <si>
-    <t>powerMod</t>
-  </si>
-  <si>
-    <t>hit% mod</t>
-  </si>
-  <si>
-    <t>status effect mod</t>
-  </si>
-  <si>
     <t>fire</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t>crit %</t>
   </si>
   <si>
-    <t>crit % mod</t>
-  </si>
-  <si>
     <t>splash</t>
   </si>
   <si>
@@ -160,6 +142,63 @@
   </si>
   <si>
     <t>always crits (debug)</t>
+  </si>
+  <si>
+    <t>powerMod+</t>
+  </si>
+  <si>
+    <t>power mod*</t>
+  </si>
+  <si>
+    <t>cooldown*</t>
+  </si>
+  <si>
+    <t>hit% mod+</t>
+  </si>
+  <si>
+    <t>hit% *</t>
+  </si>
+  <si>
+    <t>crit % mod*</t>
+  </si>
+  <si>
+    <t>crit % mod+</t>
+  </si>
+  <si>
+    <t>status% +</t>
+  </si>
+  <si>
+    <t>status% *</t>
+  </si>
+  <si>
+    <t>cooldown+</t>
+  </si>
+  <si>
+    <t>status%</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>debug, causes player to miss</t>
+  </si>
+  <si>
+    <t>empowered</t>
+  </si>
+  <si>
+    <t>+power, +casting time</t>
+  </si>
+  <si>
+    <t>widened</t>
+  </si>
+  <si>
+    <t>-power, +AOE, +casting  time</t>
+  </si>
+  <si>
+    <t>shank</t>
+  </si>
+  <si>
+    <t>+crit rate, +casting time</t>
   </si>
 </sst>
 </file>
@@ -478,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,20 +529,23 @@
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="6" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -515,24 +557,24 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -550,18 +592,18 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -579,18 +621,18 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -608,18 +650,18 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -637,18 +679,18 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -666,18 +708,18 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -695,18 +737,18 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>999</v>
@@ -724,18 +766,18 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -753,130 +795,336 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>1.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>-5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>6</v>
+      <c r="F18">
+        <v>1.25</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.25</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1.5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>1.5</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>-100</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>name (root)</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>+crit rate, +casting time</t>
+  </si>
+  <si>
+    <t>kills self (debug)</t>
+  </si>
+  <si>
+    <t>mS</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>deal stagger to all</t>
+  </si>
+  <si>
+    <t>LMR</t>
+  </si>
+  <si>
+    <t>death</t>
   </si>
 </sst>
 </file>
@@ -517,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +555,7 @@
     <col min="11" max="11" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -595,7 +613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -624,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -653,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -682,7 +700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -711,7 +729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -740,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -769,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -798,231 +816,207 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" t="s">
-        <v>4</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>1.2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>1.25</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1.25</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" t="s">
+        <v>49</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>0.75</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1037,27 +1031,27 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1066,10 +1060,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1083,28 +1077,28 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G21">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1119,11 +1113,93 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>1.5</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>-100</v>
+      </c>
+      <c r="H23">
+        <v>0.25</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
   <si>
     <t>name (root)</t>
   </si>
@@ -217,6 +217,60 @@
   </si>
   <si>
     <t>death</t>
+  </si>
+  <si>
+    <t>debilitate</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>1 lvl of all non-elem debuffs</t>
+  </si>
+  <si>
+    <t>buff/debuffs</t>
+  </si>
+  <si>
+    <t>buff %</t>
+  </si>
+  <si>
+    <t>crush</t>
+  </si>
+  <si>
+    <t>applies def- debuff</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>prayer</t>
+  </si>
+  <si>
+    <t>1 lvl of all non-elem buffs</t>
+  </si>
+  <si>
+    <t>ADSHE</t>
+  </si>
+  <si>
+    <t>adshe</t>
+  </si>
+  <si>
+    <t>weakness</t>
+  </si>
+  <si>
+    <t>lowers target all elem resist</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>increases all elem resist</t>
+  </si>
+  <si>
+    <t>UFIB</t>
+  </si>
+  <si>
+    <t>ufib</t>
   </si>
 </sst>
 </file>
@@ -535,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,11 +605,11 @@
     <col min="6" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +637,14 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -612,8 +672,14 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -641,8 +707,14 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -670,8 +742,14 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -699,8 +777,14 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -728,25 +812,31 @@
       <c r="I6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>-1000</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -757,28 +847,34 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -786,19 +882,25 @@
       <c r="I8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -807,7 +909,7 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -815,19 +917,25 @@
       <c r="I9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -836,27 +944,33 @@
         <v>100</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -865,86 +979,194 @@
         <v>100</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>100</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -954,252 +1176,325 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
         <v>43</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>1.2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.25</v>
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>1.25</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1.25</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.75</v>
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1.5</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>1.5</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>-100</v>
-      </c>
-      <c r="H23">
-        <v>0.25</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>49</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>1.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1.25</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.25</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1.5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>1.5</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>-100</v>
+      </c>
+      <c r="H28">
+        <v>0.25</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>name (root)</t>
   </si>
@@ -271,6 +271,33 @@
   </si>
   <si>
     <t>ufib</t>
+  </si>
+  <si>
+    <t>illyia</t>
+  </si>
+  <si>
+    <t>the ultimate sword</t>
+  </si>
+  <si>
+    <t>ADSHEUFIB</t>
+  </si>
+  <si>
+    <t>friend/attack</t>
+  </si>
+  <si>
+    <t>dahlia</t>
+  </si>
+  <si>
+    <t>friend/buff</t>
+  </si>
+  <si>
+    <t>Super Buff!</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>adsheufib</t>
   </si>
 </sst>
 </file>
@@ -589,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,69 +1198,105 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>999</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>75</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1244,156 +1307,108 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>1.2</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>1.25</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1.25</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
+        <v>49</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1">
         <v>0.75</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1408,27 +1423,27 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1437,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1454,28 +1469,28 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G28">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1490,11 +1505,93 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1.5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>1.5</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>-100</v>
+      </c>
+      <c r="H30">
+        <v>0.25</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>name (root)</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>adsheufib</t>
+  </si>
+  <si>
+    <t>teamcrit</t>
+  </si>
+  <si>
+    <t>crits own team (debug)</t>
+  </si>
+  <si>
+    <t>lr</t>
   </si>
 </sst>
 </file>
@@ -616,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,16 +1032,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1047,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -1058,54 +1067,54 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1117,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14">
         <v>100</v>
@@ -1128,19 +1137,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -1152,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K15">
         <v>100</v>
@@ -1163,13 +1172,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1187,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16">
         <v>100</v>
@@ -1198,19 +1207,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -1222,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -1233,34 +1242,34 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D18">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K18">
         <v>100</v>
@@ -1268,52 +1277,70 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>999</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1324,13 +1351,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1341,121 +1368,97 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <v>1.2</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1469,22 +1472,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1505,27 +1508,27 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1534,10 +1537,10 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1546,39 +1549,39 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G30">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1592,6 +1595,47 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>-100</v>
+      </c>
+      <c r="H31">
+        <v>0.25</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>name (root)</t>
   </si>
@@ -90,9 +90,6 @@
     <t>poke</t>
   </si>
   <si>
-    <t>high damage for debugging</t>
-  </si>
-  <si>
     <t>bolt</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>stun</t>
   </si>
   <si>
-    <t>deal stagger to all</t>
-  </si>
-  <si>
     <t>LMR</t>
   </si>
   <si>
@@ -307,6 +301,42 @@
   </si>
   <si>
     <t>lr</t>
+  </si>
+  <si>
+    <t>modFlag</t>
+  </si>
+  <si>
+    <t>high damage (debug)</t>
+  </si>
+  <si>
+    <t>deal stagger to all (debug)</t>
+  </si>
+  <si>
+    <t>quake</t>
+  </si>
+  <si>
+    <t>hits everyone!</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>no_targeting</t>
+  </si>
+  <si>
+    <t>no_mods</t>
+  </si>
+  <si>
+    <t>no_styles</t>
+  </si>
+  <si>
+    <t>nullify</t>
+  </si>
+  <si>
+    <t>can only deal null damage</t>
+  </si>
+  <si>
+    <t>no_elements</t>
   </si>
 </sst>
 </file>
@@ -342,9 +372,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,9 +674,10 @@
     <col min="9" max="9" width="10.77734375" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,22 +697,25 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -709,13 +744,13 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -744,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -779,21 +814,21 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>25</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -811,24 +846,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -846,24 +881,24 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -884,21 +919,21 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -919,13 +954,13 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -933,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>999</v>
@@ -954,21 +989,21 @@
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -989,21 +1024,21 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>999</v>
@@ -1021,24 +1056,24 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -1056,24 +1091,24 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1091,100 +1126,106 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>20</v>
       </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
+      <c r="F14" s="2">
+        <v>85</v>
+      </c>
+      <c r="G14" s="2">
+        <v>25</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>90</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>11</v>
       </c>
-      <c r="J14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
-      </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -1199,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K16">
         <v>100</v>
@@ -1207,19 +1248,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -1231,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -1242,19 +1283,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -1266,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K18">
         <v>100</v>
@@ -1277,34 +1318,34 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K19">
         <v>100</v>
@@ -1312,69 +1353,111 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="D21">
+        <v>999</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1385,156 +1468,108 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>1.2</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>1.25</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1.25</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1">
         <v>0.75</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1549,27 +1584,27 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1578,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1590,33 +1625,33 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G31">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1631,11 +1666,93 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1.5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>1.5</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>-100</v>
+      </c>
+      <c r="H33">
+        <v>0.25</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
   <si>
     <t>name (root)</t>
   </si>
@@ -337,6 +337,15 @@
   </si>
   <si>
     <t>no_elements</t>
+  </si>
+  <si>
+    <t>anim ID</t>
+  </si>
+  <si>
+    <t>sfx ID</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -656,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,17 +676,19 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,34 +699,40 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -725,32 +742,38 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>85</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -760,32 +783,38 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>90</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -795,32 +824,38 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>75</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -830,32 +865,38 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
       </c>
       <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>75</v>
       </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -865,32 +906,38 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6">
         <v>40</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
         <v>95</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -900,32 +947,38 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
       </c>
       <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>80</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>71</v>
       </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -935,32 +988,38 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>-1000</v>
       </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -970,32 +1029,38 @@
       <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9">
         <v>999</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1005,32 +1070,38 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
       <c r="G10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>24</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1040,32 +1111,38 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11">
         <v>999</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -1075,32 +1152,38 @@
       <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12">
         <v>25</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
       <c r="G12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>93</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>24</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1110,32 +1193,38 @@
       <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>62</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>24</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1145,35 +1234,41 @@
       <c r="C14" t="s">
         <v>98</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>20</v>
       </c>
-      <c r="F14" s="2">
+      <c r="H14" s="2">
         <v>85</v>
       </c>
-      <c r="G14" s="2">
+      <c r="I14" s="2">
         <v>25</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>99</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1183,35 +1278,41 @@
       <c r="C15" t="s">
         <v>104</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>20</v>
       </c>
-      <c r="F15" s="2">
+      <c r="H15" s="2">
         <v>90</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>11</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>24</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1221,32 +1322,38 @@
       <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>74</v>
       </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1256,32 +1363,38 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>50</v>
       </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>75</v>
       </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1291,32 +1404,38 @@
       <c r="C18" t="s">
         <v>77</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>11</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>80</v>
       </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1326,32 +1445,38 @@
       <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>60</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -1361,35 +1486,41 @@
       <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>25</v>
       </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>89</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>90</v>
       </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1399,40 +1530,46 @@
       <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21">
         <v>999</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>30</v>
       </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
         <v>75</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1443,13 +1580,19 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1459,14 +1602,20 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1476,14 +1625,20 @@
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1493,19 +1648,25 @@
       <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1516,37 +1677,43 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>42</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>43</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>44</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>47</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>48</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1556,38 +1723,44 @@
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1">
         <v>0.75</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
         <v>1.2</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1597,38 +1770,44 @@
       <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="1">
         <v>1.25</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>1.25</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>1.25</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1638,21 +1817,21 @@
       <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="1">
         <v>0.75</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
@@ -1665,11 +1844,17 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -1679,38 +1864,44 @@
       <c r="C32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>1.5</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
       <c r="I32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
         <v>1.5</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1720,38 +1911,44 @@
       <c r="C33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="D33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>-100</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>0.25</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -90,9 +90,6 @@
     <t>poke</t>
   </si>
   <si>
-    <t>bolt</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>adds ice element to spell</t>
   </si>
   <si>
-    <t>adds bolt element to spell</t>
-  </si>
-  <si>
     <t>+acc, -power</t>
   </si>
   <si>
@@ -346,6 +340,12 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>volt</t>
+  </si>
+  <si>
+    <t>adds volt element to spell</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,10 +699,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -714,22 +714,22 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -743,10 +743,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -784,10 +784,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -808,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -857,19 +857,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -898,19 +898,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>40</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -939,19 +939,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -980,19 +980,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>999</v>
@@ -1054,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1062,19 +1062,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1103,19 +1103,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11">
         <v>999</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1144,19 +1144,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F12">
         <v>25</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1185,19 +1185,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -1256,33 +1256,33 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1303,30 +1303,30 @@
         <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16">
         <v>100</v>
@@ -1355,19 +1355,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M17">
         <v>100</v>
@@ -1396,19 +1396,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M18">
         <v>100</v>
@@ -1437,40 +1437,40 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" t="s">
         <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" t="s">
-        <v>81</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -1478,19 +1478,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1508,33 +1508,33 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M20">
         <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21">
         <v>999</v>
@@ -1555,13 +1555,13 @@
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21">
         <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1580,16 +1580,16 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1600,13 +1600,13 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1623,13 +1623,13 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1671,43 +1671,43 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
         <v>41</v>
       </c>
-      <c r="G28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>42</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
         <v>43</v>
       </c>
-      <c r="J28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" t="s">
         <v>46</v>
-      </c>
-      <c r="L28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" t="s">
-        <v>48</v>
       </c>
       <c r="O28" t="s">
         <v>4</v>
@@ -1721,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F29" s="1">
         <v>0.75</v>
@@ -1757,24 +1757,24 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F30" s="1">
         <v>1.25</v>
@@ -1804,24 +1804,24 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F31" s="1">
         <v>0.75</v>
@@ -1851,24 +1851,24 @@
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -1898,24 +1898,24 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
   <si>
     <t>name (root)</t>
   </si>
@@ -346,12 +346,18 @@
   </si>
   <si>
     <t>adds volt element to spell</t>
+  </si>
+  <si>
+    <t>heal self</t>
+  </si>
+  <si>
+    <t>selfcare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,31 +670,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -814,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -855,15 +861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -872,22 +878,22 @@
         <v>106</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>9999</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -896,15 +902,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -913,13 +919,13 @@
         <v>106</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -937,15 +943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
@@ -954,13 +960,13 @@
         <v>106</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -969,24 +975,24 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -995,13 +1001,13 @@
         <v>106</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>-1000</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -1013,21 +1019,21 @@
         <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1036,16 +1042,16 @@
         <v>106</v>
       </c>
       <c r="F9">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1060,15 +1066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
@@ -1077,7 +1083,7 @@
         <v>106</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1086,7 +1092,7 @@
         <v>100</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1101,15 +1107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -1118,7 +1124,7 @@
         <v>106</v>
       </c>
       <c r="F11">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1127,13 +1133,13 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
@@ -1142,15 +1148,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>106</v>
@@ -1159,7 +1165,7 @@
         <v>106</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1168,13 +1174,13 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
@@ -1183,15 +1189,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
@@ -1200,7 +1206,7 @@
         <v>106</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1224,15 +1230,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -1241,22 +1247,22 @@
         <v>106</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2">
-        <v>85</v>
-      </c>
-      <c r="I14" s="2">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -1264,19 +1270,16 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1291,16 +1294,16 @@
         <v>20</v>
       </c>
       <c r="H15" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2">
-        <v>5</v>
-      </c>
-      <c r="J15" s="2">
+        <v>25</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -1309,18 +1312,18 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -1329,39 +1332,42 @@
         <v>106</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
+      <c r="H16" s="2">
+        <v>90</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -1373,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -1385,24 +1391,24 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M17">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -1414,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -1426,376 +1432,370 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M18">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
       <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>58</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
         <v>79</v>
       </c>
-      <c r="M19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="M20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>25</v>
       </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>87</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>88</v>
       </c>
-      <c r="M20">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21">
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22">
         <v>999</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>30</v>
       </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21">
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
         <v>75</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>82</v>
       </c>
-      <c r="M21">
-        <v>100</v>
-      </c>
-      <c r="N21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>105</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>107</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>108</v>
       </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>104</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>105</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>39</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>40</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>41</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J29" t="s">
         <v>42</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K29" t="s">
         <v>44</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L29" t="s">
         <v>43</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M29" t="s">
         <v>45</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N29" t="s">
         <v>46</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="D30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="1">
         <v>0.75</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
         <v>1.2</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>1.25</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1807,136 +1807,136 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>1.25</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1.25</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="1">
         <v>0.75</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="D33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>3</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>1.5</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
         <v>1.5</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>-100</v>
-      </c>
-      <c r="J33">
-        <v>0.25</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -1948,8 +1948,55 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>-100</v>
+      </c>
+      <c r="J34">
+        <v>0.25</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,31 +670,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1611,12 +1611,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -1708,12 +1708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
   <si>
     <t>name (root)</t>
   </si>
@@ -51,9 +51,6 @@
     <t>attack</t>
   </si>
   <si>
-    <t>a basic attack</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
@@ -75,18 +72,6 @@
     <t>aimed</t>
   </si>
   <si>
-    <t>spear</t>
-  </si>
-  <si>
-    <t>a basic long cool atk</t>
-  </si>
-  <si>
-    <t>falchion</t>
-  </si>
-  <si>
-    <t>a basic super long atk</t>
-  </si>
-  <si>
     <t>poke</t>
   </si>
   <si>
@@ -114,12 +99,6 @@
     <t>always misses (debug )</t>
   </si>
   <si>
-    <t>adds fire element to spell</t>
-  </si>
-  <si>
-    <t>adds ice element to spell</t>
-  </si>
-  <si>
     <t>+acc, -power</t>
   </si>
   <si>
@@ -345,19 +324,49 @@
     <t>volt</t>
   </si>
   <si>
-    <t>adds volt element to spell</t>
-  </si>
-  <si>
     <t>heal self</t>
   </si>
   <si>
     <t>selfcare</t>
+  </si>
+  <si>
+    <t>lance</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>agni</t>
+  </si>
+  <si>
+    <t>cryo</t>
+  </si>
+  <si>
+    <t>veld</t>
+  </si>
+  <si>
+    <t>Basic Phys ATK</t>
+  </si>
+  <si>
+    <t>Medium Phys ATK</t>
+  </si>
+  <si>
+    <t>Heavy Phys ATK</t>
+  </si>
+  <si>
+    <t>Override ATK type to Fire</t>
+  </si>
+  <si>
+    <t>Override ATK type to Ice</t>
+  </si>
+  <si>
+    <t>Override ATK type to Volt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,31 +679,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,10 +714,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -720,25 +729,25 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -746,13 +755,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -770,30 +779,30 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -811,30 +820,30 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -852,30 +861,30 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <v>-30</v>
@@ -893,30 +902,30 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -934,30 +943,30 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -975,30 +984,30 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1016,30 +1025,30 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1057,30 +1066,30 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>999</v>
@@ -1098,30 +1107,30 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1139,30 +1148,30 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F12">
         <v>999</v>
@@ -1180,30 +1189,30 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -1221,30 +1230,30 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1262,30 +1271,30 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1303,33 +1312,33 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1347,33 +1356,33 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1391,30 +1400,30 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M17">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1432,30 +1441,30 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M18">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1473,71 +1482,71 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="M19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="M20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1555,33 +1564,33 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M21">
         <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <v>999</v>
@@ -1599,84 +1608,84 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M22">
         <v>100</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>105</v>
       </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1685,21 +1694,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1708,73 +1717,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" t="s">
         <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" t="s">
-        <v>46</v>
       </c>
       <c r="O29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F30" s="1">
         <v>0.75</v>
@@ -1804,24 +1813,24 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F31" s="1">
         <v>1.25</v>
@@ -1851,24 +1860,24 @@
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1">
         <v>0.75</v>
@@ -1898,24 +1907,24 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1945,24 +1954,24 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1992,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>95</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
   <si>
     <t>name (root)</t>
   </si>
@@ -318,9 +318,6 @@
     <t>sfx ID</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>volt</t>
   </si>
   <si>
@@ -361,12 +358,45 @@
   </si>
   <si>
     <t>Override ATK type to Volt</t>
+  </si>
+  <si>
+    <t>anim_spell_slash</t>
+  </si>
+  <si>
+    <t>animation ID</t>
+  </si>
+  <si>
+    <t>sfx_slash</t>
+  </si>
+  <si>
+    <t>sfx_stab</t>
+  </si>
+  <si>
+    <t>sfx_crush</t>
+  </si>
+  <si>
+    <t>anim_spell_volt</t>
+  </si>
+  <si>
+    <t>sfx_fire_hit</t>
+  </si>
+  <si>
+    <t>sfx_ice_hit</t>
+  </si>
+  <si>
+    <t>sfx_volt_hit</t>
+  </si>
+  <si>
+    <t>anim_spell_stab</t>
+  </si>
+  <si>
+    <t>anim_spell_crush</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,31 +709,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
         <v>98</v>
@@ -747,7 +777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -755,13 +785,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -788,21 +818,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -829,21 +859,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -870,21 +900,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F5">
         <v>-30</v>
@@ -911,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -922,10 +952,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -952,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -963,10 +993,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -993,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1004,10 +1034,10 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1034,7 +1064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1045,10 +1075,10 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1075,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1086,10 +1116,10 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F10">
         <v>999</v>
@@ -1116,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1127,10 +1157,10 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1157,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1168,10 +1198,10 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F12">
         <v>999</v>
@@ -1198,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1209,10 +1239,10 @@
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -1239,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1250,10 +1280,10 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1280,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1291,10 +1321,10 @@
         <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1324,7 +1354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -1335,10 +1365,10 @@
         <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1368,7 +1398,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1379,10 +1409,10 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1409,7 +1439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1420,10 +1450,10 @@
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1450,7 +1480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1461,10 +1491,10 @@
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1491,7 +1521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1502,10 +1532,10 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1532,7 +1562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1543,10 +1573,10 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1576,7 +1606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1587,10 +1617,10 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F22">
         <v>999</v>
@@ -1620,12 +1650,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1648,21 +1678,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1671,44 +1701,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="D26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1717,12 +1747,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1769,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1779,11 +1809,11 @@
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>99</v>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
       </c>
       <c r="F30" s="1">
         <v>0.75</v>
@@ -1816,7 +1846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1826,11 +1856,11 @@
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>99</v>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
       </c>
       <c r="F31" s="1">
         <v>1.25</v>
@@ -1863,7 +1893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1873,11 +1903,11 @@
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>99</v>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
       </c>
       <c r="F32" s="1">
         <v>0.75</v>
@@ -1910,7 +1940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1920,11 +1950,11 @@
       <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1957,7 +1987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1967,11 +1997,11 @@
       <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>99</v>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -2004,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
   <si>
     <t>name (root)</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>anim_spell_crush</t>
+  </si>
+  <si>
+    <t>anim_spell_fire</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1692,7 @@
         <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
         <v>119</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E5452-4ABA-43F7-9E26-86CFB7017372}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
   <si>
     <t>name (root)</t>
   </si>
@@ -394,6 +395,15 @@
   </si>
   <si>
     <t>anim_spell_fire</t>
+  </si>
+  <si>
+    <t>anim_spell_ice</t>
+  </si>
+  <si>
+    <t>anim_spell_empower</t>
+  </si>
+  <si>
+    <t>anim_spell_heal</t>
   </si>
 </sst>
 </file>
@@ -715,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +734,7 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -914,7 +924,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>115</v>
@@ -1715,7 +1725,7 @@
         <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
         <v>120</v>
@@ -1813,7 +1823,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
         <v>115</v>
@@ -1860,7 +1870,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
         <v>115</v>
@@ -1907,7 +1917,7 @@
         <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
         <v>115</v>
@@ -1954,7 +1964,7 @@
         <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
         <v>115</v>
@@ -2001,7 +2011,7 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
         <v>115</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E5452-4ABA-43F7-9E26-86CFB7017372}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654C5F70-C973-4192-9521-9898686B561A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
   <si>
     <t>name (root)</t>
   </si>
@@ -322,9 +322,6 @@
     <t>volt</t>
   </si>
   <si>
-    <t>heal self</t>
-  </si>
-  <si>
     <t>selfcare</t>
   </si>
   <si>
@@ -404,6 +401,21 @@
   </si>
   <si>
     <t>anim_spell_heal</t>
+  </si>
+  <si>
+    <t>Recover User's HP</t>
+  </si>
+  <si>
+    <t>sfx_mystery_effect</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>Hurts User :(</t>
+  </si>
+  <si>
+    <t>sfx_spell_resist</t>
   </si>
 </sst>
 </file>
@@ -723,30 +735,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
         <v>98</v>
@@ -790,7 +802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -798,13 +810,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -831,21 +843,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -872,21 +884,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -913,21 +925,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F5">
         <v>-30</v>
@@ -939,7 +951,7 @@
         <v>9999</v>
       </c>
       <c r="I5">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -954,39 +966,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>75</v>
+        <v>9999</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -995,30 +1007,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1027,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1036,30 +1048,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -1068,39 +1080,39 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>-1000</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1112,39 +1124,39 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1159,24 +1171,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1185,7 +1197,7 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1200,24 +1212,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1226,13 +1238,13 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -1241,24 +1253,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1267,13 +1279,13 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -1282,24 +1294,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1314,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1323,39 +1335,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2">
-        <v>85</v>
-      </c>
-      <c r="I15" s="2">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -1363,25 +1375,22 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1390,16 +1399,16 @@
         <v>20</v>
       </c>
       <c r="H16" s="2">
+        <v>85</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>90</v>
-      </c>
-      <c r="I16" s="2">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>10</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1408,71 +1417,74 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
+      <c r="H17" s="2">
+        <v>90</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -1484,36 +1496,36 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M18">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -1525,376 +1537,370 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>51</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>72</v>
       </c>
-      <c r="M20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>25</v>
       </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>80</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>81</v>
       </c>
-      <c r="M21">
-        <v>100</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22">
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23">
         <v>999</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>30</v>
       </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22">
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
         <v>75</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
         <v>75</v>
       </c>
-      <c r="M22">
-        <v>100</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>98</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>40</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
         <v>110</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>124</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>119</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
         <v>111</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>125</v>
       </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="1">
         <v>0.75</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="J30">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
         <v>1.2</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>1.25</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -1906,136 +1912,136 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>1.25</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1.25</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="1">
         <v>0.75</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>1.5</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>10</v>
-      </c>
-      <c r="L33">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
         <v>1.5</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>-100</v>
-      </c>
-      <c r="J34">
-        <v>0.25</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2047,8 +2053,55 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>-100</v>
+      </c>
+      <c r="J35">
+        <v>0.25</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654C5F70-C973-4192-9521-9898686B561A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1FBC85-D564-47A3-8C53-64B0CADF02C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,10 +412,10 @@
     <t>stress</t>
   </si>
   <si>
-    <t>Hurts User :(</t>
-  </si>
-  <si>
     <t>sfx_spell_resist</t>
+  </si>
+  <si>
+    <t>Does Nothing</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,16 +974,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
         <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>2</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1FBC85-D564-47A3-8C53-64B0CADF02C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ACAEC5-F0E0-44A5-8A00-CA12ADA9580A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
   <si>
     <t>name (root)</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>Does Nothing</t>
+  </si>
+  <si>
+    <t>stinger</t>
+  </si>
+  <si>
+    <t>High Dmg Critical Hit</t>
   </si>
 </sst>
 </file>
@@ -735,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,57 +1384,54 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2">
-        <v>85</v>
-      </c>
-      <c r="I16" s="2">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>9999</v>
+      </c>
+      <c r="I16">
+        <v>9999</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -1443,16 +1446,16 @@
         <v>20</v>
       </c>
       <c r="H17" s="2">
+        <v>85</v>
+      </c>
+      <c r="I17" s="2">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>90</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>10</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
@@ -1461,18 +1464,18 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>112</v>
@@ -1481,39 +1484,42 @@
         <v>114</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
+      <c r="H18" s="2">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>112</v>
@@ -1525,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -1537,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -1548,13 +1554,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
@@ -1566,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -1578,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M20">
         <v>100</v>
@@ -1589,13 +1595,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
@@ -1619,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21">
         <v>100</v>
@@ -1630,13 +1636,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
@@ -1648,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -1660,27 +1666,24 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M22">
         <v>100</v>
-      </c>
-      <c r="N22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>112</v>
@@ -1689,99 +1692,120 @@
         <v>114</v>
       </c>
       <c r="F23">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H23">
         <v>100</v>
       </c>
       <c r="I23">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M23">
         <v>100</v>
       </c>
       <c r="N23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24">
+        <v>999</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>75</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1792,19 +1816,19 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1815,112 +1839,88 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
-        <v>1.2</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
@@ -1929,25 +1929,25 @@
         <v>114</v>
       </c>
       <c r="F32" s="1">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>125</v>
@@ -1976,13 +1976,13 @@
         <v>114</v>
       </c>
       <c r="F33" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2003,18 +2003,18 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>125</v>
@@ -2023,13 +2023,13 @@
         <v>114</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2038,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2050,18 +2050,18 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>125</v>
@@ -2073,22 +2073,22 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I35">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2102,6 +2102,53 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>-100</v>
+      </c>
+      <c r="J36">
+        <v>0.25</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ACAEC5-F0E0-44A5-8A00-CA12ADA9580A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7896A5-EB2C-4BFE-8F8B-D1B945C58682}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
         <v>128</v>
       </c>
       <c r="F5">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -957,7 +957,7 @@
         <v>9999</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>0</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7896A5-EB2C-4BFE-8F8B-D1B945C58682}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E6EEBA-6511-495B-9A6E-F87764D4512D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
@@ -415,13 +415,13 @@
     <t>sfx_spell_resist</t>
   </si>
   <si>
-    <t>Does Nothing</t>
-  </si>
-  <si>
     <t>stinger</t>
   </si>
   <si>
     <t>High Dmg Critical Hit</t>
+  </si>
+  <si>
+    <t>Hurts Caster</t>
   </si>
 </sst>
 </file>
@@ -744,27 +744,27 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -948,16 +948,16 @@
         <v>128</v>
       </c>
       <c r="F5">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>9999</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -980,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>125</v>
@@ -989,10 +989,10 @@
         <v>130</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>9999</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1382,15 +1382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
         <v>121</v>
@@ -1423,7 +1423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1763,12 +1763,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -1860,12 +1860,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E6EEBA-6511-495B-9A6E-F87764D4512D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD94A1E-4E4B-435D-84E9-F28306456DBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="142">
   <si>
     <t>name (root)</t>
   </si>
@@ -109,9 +109,6 @@
     <t>splash</t>
   </si>
   <si>
-    <t>weakpnt</t>
-  </si>
-  <si>
     <t>always crits (debug)</t>
   </si>
   <si>
@@ -422,6 +419,33 @@
   </si>
   <si>
     <t>Hurts Caster</t>
+  </si>
+  <si>
+    <t>perish</t>
+  </si>
+  <si>
+    <t>Deals massive damage</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>High Crit (secret)</t>
+  </si>
+  <si>
+    <t>Raises DEF (secret)</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>ultima</t>
+  </si>
+  <si>
+    <t>Massive DMG (secret)</t>
   </si>
 </sst>
 </file>
@@ -741,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,10 +799,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -793,19 +817,19 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
-        <v>59</v>
-      </c>
       <c r="N1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -816,13 +840,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -851,19 +875,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -892,19 +916,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -933,22 +957,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
         <v>127</v>
       </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>128</v>
-      </c>
       <c r="F5">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -963,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -974,19 +998,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1004,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1015,37 +1039,37 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1056,28 +1080,28 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="H8">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -1086,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1097,28 +1121,28 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1127,39 +1151,39 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>-1000</v>
+        <v>80</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1171,39 +1195,39 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1220,22 +1244,22 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1244,7 +1268,7 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1261,22 +1285,22 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1285,13 +1309,13 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -1302,22 +1326,22 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1326,13 +1350,13 @@
         <v>100</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1343,28 +1367,28 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I15">
         <v>100</v>
@@ -1373,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -1384,78 +1408,78 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2">
-        <v>85</v>
-      </c>
-      <c r="I17" s="2">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
@@ -1463,661 +1487,637 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
         <v>114</v>
       </c>
       <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>9999</v>
+      </c>
+      <c r="I18">
+        <v>9999</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19">
         <v>50</v>
-      </c>
-      <c r="G18">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2">
-        <v>90</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
+      <c r="H19" s="2">
+        <v>85</v>
+      </c>
+      <c r="I19" s="2">
+        <v>25</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>999</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2">
+        <v>90</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2">
+        <v>100</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" t="s">
         <v>65</v>
       </c>
-      <c r="M19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="M24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>50</v>
       </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="L26" t="s">
         <v>71</v>
       </c>
-      <c r="M21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="M26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>72</v>
       </c>
-      <c r="M22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>25</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23">
-        <v>100</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28">
+        <v>999</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>75</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24">
-        <v>999</v>
-      </c>
-      <c r="G24">
-        <v>30</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24">
-        <v>75</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24">
-        <v>100</v>
-      </c>
-      <c r="N24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
         <v>97</v>
       </c>
-      <c r="E26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>103</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>109</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D32" t="s">
         <v>123</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>118</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.75</v>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>1.2</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1.25</v>
+        <v>119</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33">
-        <v>1.25</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1.25</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>1.5</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <v>1.5</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" t="s">
+        <v>38</v>
       </c>
       <c r="O35" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>-100</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2149,6 +2149,194 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>1.25</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1.25</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>1.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>1.5</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>-100</v>
+      </c>
+      <c r="J40">
+        <v>0.25</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD94A1E-4E4B-435D-84E9-F28306456DBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6DE7E-DD56-4F89-9382-DDC4C27020CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,9 +424,6 @@
     <t>perish</t>
   </si>
   <si>
-    <t>Deals massive damage</t>
-  </si>
-  <si>
     <t>gun</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>Massive DMG (secret)</t>
+  </si>
+  <si>
+    <t>Death to all (secret)</t>
   </si>
 </sst>
 </file>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,7 +858,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>95</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>121</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1373,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>121</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
         <v>124</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6DE7E-DD56-4F89-9382-DDC4C27020CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7C60656-AC7C-4A78-AF37-5ED36E4A937C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
   <si>
     <t>name (root)</t>
   </si>
@@ -100,9 +100,6 @@
     <t>always misses (debug )</t>
   </si>
   <si>
-    <t>+acc, -power</t>
-  </si>
-  <si>
     <t>crit %</t>
   </si>
   <si>
@@ -446,6 +443,21 @@
   </si>
   <si>
     <t>Death to all (secret)</t>
+  </si>
+  <si>
+    <t>halberd</t>
+  </si>
+  <si>
+    <t>Inaccurate, But High Dmg</t>
+  </si>
+  <si>
+    <t>+ACC, -DMG</t>
+  </si>
+  <si>
+    <t>weakened</t>
+  </si>
+  <si>
+    <t>-power, -casting time</t>
   </si>
 </sst>
 </file>
@@ -765,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,10 +811,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -814,22 +826,22 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -840,13 +852,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -875,19 +887,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -916,19 +928,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -957,37 +969,37 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F5">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5">
-        <v>9999</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -998,37 +1010,37 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>9999</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1039,37 +1051,37 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="I7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1080,37 +1092,37 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1121,28 +1133,28 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1151,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -1162,28 +1174,28 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1192,39 +1204,39 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>-1000</v>
+        <v>80</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1236,39 +1248,39 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1285,22 +1297,22 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1309,7 +1321,7 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1326,22 +1338,22 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1350,13 +1362,13 @@
         <v>100</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1367,37 +1379,37 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F15">
         <v>999</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -1408,28 +1420,28 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I16">
         <v>100</v>
@@ -1438,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1449,22 +1461,22 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1479,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
@@ -1490,122 +1502,119 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
         <v>113</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2">
-        <v>85</v>
-      </c>
-      <c r="I19" s="2">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>9999</v>
+      </c>
+      <c r="I19">
+        <v>9999</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>1000</v>
-      </c>
-      <c r="I20">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="H20" s="2">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2">
+        <v>25</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
@@ -1613,36 +1622,39 @@
       <c r="M20">
         <v>0</v>
       </c>
+      <c r="N20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2">
-        <v>90</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
@@ -1654,43 +1666,40 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L22" t="s">
         <v>18</v>
@@ -1698,84 +1707,87 @@
       <c r="M22">
         <v>0</v>
       </c>
+      <c r="N22" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2">
+        <v>100</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
         <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" t="s">
-        <v>65</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -1783,25 +1795,25 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -1813,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M25">
         <v>100</v>
@@ -1824,40 +1836,40 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
         <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" t="s">
-        <v>71</v>
       </c>
       <c r="M26">
         <v>100</v>
@@ -1865,25 +1877,25 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -1895,128 +1907,146 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M27">
         <v>100</v>
-      </c>
-      <c r="N27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H28">
         <v>100</v>
       </c>
       <c r="I28">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M28">
         <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29">
+        <v>999</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2027,19 +2057,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2050,139 +2080,115 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" t="s">
-        <v>37</v>
-      </c>
-      <c r="N35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36">
-        <v>1.2</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2196,28 +2202,28 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>1.1499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2229,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2238,33 +2244,33 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
         <v>113</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2273,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2290,34 +2296,34 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I40">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2332,11 +2338,105 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>1.5</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>-100</v>
+      </c>
+      <c r="J42">
+        <v>0.25</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7C60656-AC7C-4A78-AF37-5ED36E4A937C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496912DE-91C6-4FC2-BB09-82408F6D8516}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>empowered</t>
   </si>
   <si>
-    <t>+power, +casting time</t>
-  </si>
-  <si>
     <t>widened</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>quake</t>
   </si>
   <si>
-    <t>hits everyone!</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -457,7 +451,13 @@
     <t>weakened</t>
   </si>
   <si>
-    <t>-power, -casting time</t>
+    <t>hits everyone! (secret)</t>
+  </si>
+  <si>
+    <t>+DMG, +casting time</t>
+  </si>
+  <si>
+    <t>-DMG, -casting time</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,10 +811,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -835,13 +835,13 @@
         <v>4</v>
       </c>
       <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -852,13 +852,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
         <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -887,19 +887,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -928,19 +928,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -969,19 +969,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -1010,22 +1010,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
         <v>124</v>
       </c>
-      <c r="E6" t="s">
-        <v>126</v>
-      </c>
       <c r="F6">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1092,19 +1092,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -1142,10 +1142,10 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
         <v>110</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1183,10 +1183,10 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
         <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -1215,19 +1215,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11">
         <v>100</v>
@@ -1265,10 +1265,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
         <v>110</v>
-      </c>
-      <c r="E12" t="s">
-        <v>112</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1303,13 +1303,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
         <v>110</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
       </c>
       <c r="F13">
         <v>999</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1347,10 +1347,10 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
         <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>112</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1379,19 +1379,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
         <v>110</v>
-      </c>
-      <c r="E15" t="s">
-        <v>112</v>
       </c>
       <c r="F15">
         <v>999</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -1420,19 +1420,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>999</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1461,19 +1461,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
         <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
@@ -1502,20 +1502,20 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
         <v>110</v>
       </c>
-      <c r="E18" t="s">
-        <v>112</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -1543,19 +1543,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -1584,19 +1584,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
         <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
@@ -1623,24 +1623,24 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F21">
         <v>999</v>
@@ -1669,19 +1669,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
         <v>110</v>
-      </c>
-      <c r="E22" t="s">
-        <v>112</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -1708,24 +1708,24 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
         <v>134</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>136</v>
-      </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" t="s">
         <v>18</v>
@@ -1754,19 +1754,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
       <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -1795,19 +1795,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
       <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
         <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>112</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25">
         <v>100</v>
@@ -1836,20 +1836,20 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
       <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
-        <v>112</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M26">
         <v>100</v>
@@ -1877,20 +1877,20 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
       <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
         <v>110</v>
       </c>
-      <c r="E27" t="s">
-        <v>112</v>
-      </c>
       <c r="F27">
         <v>1</v>
       </c>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M27">
         <v>100</v>
@@ -1918,19 +1918,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
         <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1948,33 +1948,33 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
         <v>78</v>
       </c>
-      <c r="L28" t="s">
-        <v>79</v>
-      </c>
       <c r="M28">
         <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
       <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
         <v>110</v>
-      </c>
-      <c r="E29" t="s">
-        <v>112</v>
       </c>
       <c r="F29">
         <v>999</v>
@@ -1995,13 +1995,13 @@
         <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2020,10 +2020,10 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -2034,19 +2034,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2057,19 +2057,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2080,19 +2080,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2117,10 +2117,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -2161,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1">
         <v>0.75</v>
@@ -2208,13 +2208,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F38" s="1">
         <v>1.5</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39">
         <v>-5</v>
@@ -2258,10 +2258,10 @@
         <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F39" s="1">
         <v>0.75</v>
@@ -2296,19 +2296,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F40" s="1">
         <v>0.75</v>
@@ -2343,19 +2343,19 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -2399,10 +2399,10 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496912DE-91C6-4FC2-BB09-82408F6D8516}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D314E-4DFA-42EC-9E49-39A459AD7D90}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,7 +1028,7 @@
         <v>-50</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>9999</v>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D314E-4DFA-42EC-9E49-39A459AD7D90}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C110B9-683F-4621-9A7A-7E4BDD650B24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
@@ -779,28 +779,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>50</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -1834,7 +1834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2004,12 +2004,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -2101,12 +2101,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C110B9-683F-4621-9A7A-7E4BDD650B24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E35812-7B21-454E-ABB9-51F3DE14C31A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spellDictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="150">
   <si>
     <t>name (root)</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>-DMG, -casting time</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>forces spell to target other</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>forces spell to target self</t>
   </si>
 </sst>
 </file>
@@ -777,30 +789,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +856,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -885,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -926,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -967,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1131,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -1459,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -1667,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1793,7 +1805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1960,7 +1972,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2004,12 +2016,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2032,7 +2044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -2055,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -2101,12 +2113,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2153,7 +2165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2200,7 +2212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2388,55 +2400,149 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
         <v>121</v>
       </c>
       <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>-100</v>
       </c>
-      <c r="J42">
+      <c r="J44">
         <v>0.25</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E35812-7B21-454E-ABB9-51F3DE14C31A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7ED49D-39AE-4E84-8C46-4AE0972FC59A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="157">
   <si>
     <t>name (root)</t>
   </si>
@@ -470,13 +470,34 @@
   </si>
   <si>
     <t>forces spell to target self</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>Recover Enemy's HP</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>a,A</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>copies target pattern to other side</t>
+  </si>
+  <si>
+    <t>r,LMRlmrT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,13 +505,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -505,10 +540,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,10 +825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,47 +851,47 @@
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1022,13 +1061,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
         <v>122</v>
@@ -1052,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1063,37 +1102,37 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>-50</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>9999</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1104,37 +1143,37 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="I8">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1145,37 +1184,37 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -1186,13 +1225,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -1201,13 +1240,13 @@
         <v>110</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1216,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -1227,28 +1266,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1257,39 +1296,39 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>-1000</v>
+        <v>80</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1301,21 +1340,21 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>108</v>
@@ -1324,16 +1363,16 @@
         <v>110</v>
       </c>
       <c r="F13">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1350,13 +1389,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>108</v>
@@ -1365,7 +1404,7 @@
         <v>110</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1374,7 +1413,7 @@
         <v>100</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1391,13 +1430,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>108</v>
@@ -1406,7 +1445,7 @@
         <v>110</v>
       </c>
       <c r="F15">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1415,13 +1454,13 @@
         <v>100</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -1432,37 +1471,37 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16">
         <v>999</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1473,28 +1512,28 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -1503,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
@@ -1514,13 +1553,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>108</v>
@@ -1529,7 +1568,7 @@
         <v>110</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1544,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -1555,122 +1594,119 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="I19">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2">
-        <v>85</v>
-      </c>
-      <c r="I20" s="2">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>9999</v>
+      </c>
+      <c r="I20">
+        <v>9999</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>1000</v>
-      </c>
-      <c r="I21">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="H21" s="2">
+        <v>85</v>
+      </c>
+      <c r="I21" s="2">
+        <v>25</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="L21" t="s">
         <v>18</v>
@@ -1678,36 +1714,39 @@
       <c r="M21">
         <v>0</v>
       </c>
+      <c r="N21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="G22">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2">
-        <v>90</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5</v>
-      </c>
-      <c r="J22" s="2">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
@@ -1719,43 +1758,40 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L23" t="s">
         <v>18</v>
@@ -1763,57 +1799,60 @@
       <c r="M23">
         <v>0</v>
       </c>
+      <c r="N23" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2">
+        <v>100</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="L24" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>108</v>
@@ -1825,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -1837,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M25">
         <v>100</v>
@@ -1848,13 +1887,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>108</v>
@@ -1866,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -1878,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M26">
         <v>100</v>
@@ -1889,13 +1928,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>108</v>
@@ -1919,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M27">
         <v>100</v>
@@ -1930,13 +1969,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>108</v>
@@ -1948,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -1960,27 +1999,24 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M28">
         <v>100</v>
-      </c>
-      <c r="N28" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>108</v>
@@ -1989,99 +2025,120 @@
         <v>110</v>
       </c>
       <c r="F29">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>100</v>
       </c>
       <c r="I29">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="L29" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30">
+        <v>999</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>75</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2092,19 +2149,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2115,112 +2172,88 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K36" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37">
-        <v>1.2</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
@@ -2229,25 +2262,25 @@
         <v>110</v>
       </c>
       <c r="F38" s="1">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2261,28 +2294,28 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2291,10 +2324,10 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2308,28 +2341,28 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F40" s="1">
         <v>0.75</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1.1499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2338,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2350,18 +2383,18 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2370,13 +2403,13 @@
         <v>110</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2385,10 +2418,10 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2397,33 +2430,33 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2432,10 +2465,10 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2444,18 +2477,18 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
         <v>121</v>
@@ -2491,24 +2524,24 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
         <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -2520,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2538,11 +2571,152 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>-100</v>
+      </c>
+      <c r="J46">
+        <v>0.25</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7ED49D-39AE-4E84-8C46-4AE0972FC59A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE112294-929F-4BEB-BC56-D7A596729E05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>LRmS</t>
   </si>
   <si>
-    <t>always misses (debug )</t>
-  </si>
-  <si>
     <t>crit %</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
   </si>
   <si>
     <t>r,LMRlmrT</t>
+  </si>
+  <si>
+    <t>not meant to cause harm</t>
   </si>
 </sst>
 </file>
@@ -828,10 +828,10 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,10 +862,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -877,22 +877,22 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -903,13 +903,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -938,19 +938,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -979,19 +979,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -1020,19 +1020,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>-50</v>
@@ -1102,19 +1102,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
         <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
       </c>
       <c r="F7">
         <v>-50</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -1143,19 +1143,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1184,19 +1184,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -1234,10 +1234,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1275,10 +1275,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11">
         <v>40</v>
@@ -1307,19 +1307,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1340,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12">
         <v>100</v>
@@ -1348,25 +1348,25 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>-1000</v>
@@ -1395,13 +1395,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14">
         <v>999</v>
@@ -1430,19 +1430,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1471,19 +1471,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16">
         <v>999</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1512,19 +1512,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>999</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
@@ -1553,19 +1553,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -1594,19 +1594,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
         <v>18</v>
@@ -1635,19 +1635,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M20">
         <v>100</v>
@@ -1676,19 +1676,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s">
         <v>18</v>
@@ -1715,24 +1715,24 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>999</v>
@@ -1761,19 +1761,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -1800,24 +1800,24 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
@@ -1846,19 +1846,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M25">
         <v>100</v>
@@ -1887,19 +1887,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1917,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M26">
         <v>100</v>
@@ -1928,19 +1928,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M27">
         <v>100</v>
@@ -1969,19 +1969,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M28">
         <v>100</v>
@@ -2010,19 +2010,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2040,33 +2040,33 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" t="s">
         <v>77</v>
       </c>
-      <c r="L29" t="s">
-        <v>78</v>
-      </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30">
         <v>999</v>
@@ -2087,13 +2087,13 @@
         <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M30">
         <v>100</v>
       </c>
       <c r="N30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2112,33 +2112,33 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
         <v>93</v>
       </c>
-      <c r="E32" t="s">
-        <v>94</v>
-      </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2149,19 +2149,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2203,43 +2203,43 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
         <v>93</v>
       </c>
-      <c r="E37" t="s">
-        <v>94</v>
-      </c>
       <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
         <v>30</v>
       </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>31</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>32</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
         <v>33</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>35</v>
       </c>
-      <c r="L37" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>36</v>
-      </c>
-      <c r="N37" t="s">
-        <v>37</v>
       </c>
       <c r="O37" t="s">
         <v>4</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F38" s="1">
         <v>0.75</v>
@@ -2294,19 +2294,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F39" s="1">
         <v>1.5</v>
@@ -2341,19 +2341,19 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40">
         <v>-5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="1">
         <v>0.75</v>
@@ -2388,19 +2388,19 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F41" s="1">
         <v>0.75</v>
@@ -2430,24 +2430,24 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -2482,19 +2482,19 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -2524,24 +2524,24 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -2571,24 +2571,24 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -2618,24 +2618,24 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -2670,19 +2670,19 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47" s="1">
         <v>0.5</v>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">

--- a/Typocrypha/Assets/excel/spellDictionary.xlsx
+++ b/Typocrypha/Assets/excel/spellDictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE112294-929F-4BEB-BC56-D7A596729E05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20B9B6C-6291-4CB1-8051-FC9DF7F75247}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="163">
   <si>
     <t>name (root)</t>
   </si>
@@ -491,6 +491,24 @@
   </si>
   <si>
     <t>not meant to cause harm</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>powered</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>reverses DMG (secret)</t>
+  </si>
+  <si>
+    <t>mirrored</t>
   </si>
 </sst>
 </file>
@@ -825,13 +843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2297,7 +2315,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>143</v>
@@ -2309,19 +2327,19 @@
         <v>109</v>
       </c>
       <c r="F39" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2341,28 +2359,28 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B40">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
         <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="1">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2371,10 +2389,10 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2388,40 +2406,40 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
         <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F41" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="H41">
-        <v>1.1499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2430,33 +2448,33 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
         <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2465,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L42">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2482,28 +2500,28 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
         <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2524,33 +2542,33 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2571,33 +2589,33 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2606,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2618,24 +2636,24 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
         <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -2647,10 +2665,10 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2665,18 +2683,18 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
         <v>120</v>
@@ -2685,7 +2703,7 @@
         <v>123</v>
       </c>
       <c r="F47" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2712,11 +2730,246 @@
         <v>1</v>
       </c>
       <c r="O47" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>-100</v>
+      </c>
+      <c r="J49">
+        <v>0.25</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>1.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.95</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G52">
+        <v>7.5</v>
+      </c>
+      <c r="H52">
+        <v>1.25</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>5</v>
       </c>
     </row>
